--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="C2" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="D2" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="E2" t="n">
-        <v>3.68</v>
+        <v>3.76</v>
       </c>
       <c r="F2" t="n">
-        <v>3.61</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.02</v>
+        <v>3.95</v>
       </c>
       <c r="C3" t="n">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="D3" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="E3" t="n">
-        <v>3.92</v>
+        <v>3.99</v>
       </c>
       <c r="F3" t="n">
-        <v>4.09</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.67</v>
+        <v>3.82</v>
       </c>
       <c r="C4" t="n">
-        <v>3.7</v>
+        <v>3.89</v>
       </c>
       <c r="D4" t="n">
-        <v>3.76</v>
+        <v>3.94</v>
       </c>
       <c r="E4" t="n">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="F4" t="n">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="C5" t="n">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="D5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E5" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6">
@@ -558,13 +558,13 @@
         <v>3.15</v>
       </c>
       <c r="C6" t="n">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="D6" t="n">
-        <v>3.27</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="F6" t="n">
         <v>3.38</v>
@@ -580,16 +580,38 @@
         <v>2.94</v>
       </c>
       <c r="C7" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="D7" t="n">
         <v>2.98</v>
       </c>
       <c r="E7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="F7" t="n">
-        <v>2.76</v>
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Average restaurants ratings</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.55</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="C2" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="D2" t="n">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="E2" t="n">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="F2" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3">
@@ -495,13 +495,13 @@
         <v>4.03</v>
       </c>
       <c r="D3" t="n">
-        <v>4.03</v>
+        <v>4.1</v>
       </c>
       <c r="E3" t="n">
-        <v>3.99</v>
+        <v>3.91</v>
       </c>
       <c r="F3" t="n">
-        <v>4.15</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="C4" t="n">
-        <v>3.89</v>
+        <v>3.88</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="E4" t="n">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="F4" t="n">
         <v>3.78</v>
@@ -536,16 +536,16 @@
         <v>3.52</v>
       </c>
       <c r="C5" t="n">
-        <v>3.43</v>
+        <v>3.55</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="E5" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="6">
@@ -558,10 +558,10 @@
         <v>3.15</v>
       </c>
       <c r="C6" t="n">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="E6" t="n">
         <v>3.21</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="C7" t="n">
         <v>2.96</v>
@@ -586,10 +586,10 @@
         <v>2.98</v>
       </c>
       <c r="E7" t="n">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="F7" t="n">
-        <v>2.79</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D8" t="n">
         <v>4.53</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.56</v>
       </c>
       <c r="E8" t="n">
         <v>4.53</v>
       </c>
       <c r="F8" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.57</v>
+        <v>3.53</v>
       </c>
       <c r="C2" t="n">
         <v>3.42</v>
       </c>
       <c r="D2" t="n">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="E2" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="D3" t="n">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
       <c r="E3" t="n">
         <v>3.91</v>
       </c>
       <c r="F3" t="n">
-        <v>4.17</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.68</v>
+        <v>3.83</v>
       </c>
       <c r="C4" t="n">
         <v>3.88</v>
       </c>
       <c r="D4" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="E4" t="n">
-        <v>3.84</v>
+        <v>3.92</v>
       </c>
       <c r="F4" t="n">
-        <v>3.78</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
       <c r="C5" t="n">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="D5" t="n">
-        <v>3.62</v>
+        <v>3.48</v>
       </c>
       <c r="E5" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="F5" t="n">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="C6" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="D6" t="n">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="E6" t="n">
-        <v>3.21</v>
+        <v>3.17</v>
       </c>
       <c r="F6" t="n">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="C7" t="n">
-        <v>2.96</v>
+        <v>3.04</v>
       </c>
       <c r="D7" t="n">
         <v>2.98</v>
       </c>
       <c r="E7" t="n">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="F7" t="n">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="8">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="C8" t="n">
         <v>4.55</v>
@@ -608,10 +608,10 @@
         <v>4.53</v>
       </c>
       <c r="E8" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F8" t="n">
         <v>4.53</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.54</v>
       </c>
     </row>
   </sheetData>
